--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Fac_Char sample (carefule not to overwrite Pdrive vers).xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Fac_Char sample (carefule not to overwrite Pdrive vers).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{AAB884C7-0C26-4005-ACAC-C8D75FD10246}"/>
   <bookViews>
-    <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Types" sheetId="19" r:id="rId1"/>
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,8 +2177,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Fac_Char sample (carefule not to overwrite Pdrive vers).xlsx
+++ b/Sprint03_Data_Operation/_jonhonda_dat/special_prj/Input_Files/Fac_Char sample (carefule not to overwrite Pdrive vers).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonHonda\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Projects\Big Data School\BigDataAnalyst_ProjectDocumentation\Sprint03_Data_Operation\_jonhonda_dat\special_prj\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="C7CD68D7EC8F8D258325643DAE570B5AA2EA85FA" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{AAB884C7-0C26-4005-ACAC-C8D75FD10246}"/>
   <bookViews>
-    <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8196" yWindow="576" windowWidth="19116" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Types" sheetId="19" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Facility 1" sheetId="17" r:id="rId3"/>
     <sheet name="Facility 2" sheetId="18" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -1370,6 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1447,10 +1448,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,13 +2174,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,7 +2936,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
